--- a/excels/config/server/soul/server_soul_config.xlsx
+++ b/excels/config/server/soul/server_soul_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155" tabRatio="779" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="server_soul_config" sheetId="9" r:id="rId1"/>
@@ -2232,12 +2232,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{010012EB-D8C3-4FE4-9C74-DAE9324A322F}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{02DF2F98-515C-4C6C-B5BC-4AE3A44171D7}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B19A52C8-6A04-460E-9AB9-B983EF2A0594}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{4D20CD83-24E3-4D23-8887-A7F781889383}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2249,7 +2249,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="5"/>
       <tableStyleElement type="lastTotalCell" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{164C8BF8-2933-4A88-89C8-3DEB314F416F}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{65B4FC0F-4DD6-4AC8-8457-70CDF9ADF166}">
       <tableStyleElement type="wholeTable" dxfId="20"/>
       <tableStyleElement type="headerRow" dxfId="19"/>
       <tableStyleElement type="totalRow" dxfId="18"/>
@@ -3492,8 +3492,8 @@
   <sheetPr/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/excels/config/server/soul/server_soul_config.xlsx
+++ b/excels/config/server/soul/server_soul_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="779" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="13395" tabRatio="779" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="server_soul_config" sheetId="9" r:id="rId1"/>
@@ -300,103 +300,103 @@
     <t>攻击力(基础)</t>
   </si>
   <si>
-    <t>10000|10101|10201|10301</t>
+    <t>10001|10101|10201|10301</t>
   </si>
   <si>
     <t>固定伤害</t>
   </si>
   <si>
-    <t>10001|10102|10202|10302</t>
+    <t>10002|10102|10202|10302</t>
   </si>
   <si>
     <t>%元素伤害(基础)</t>
   </si>
   <si>
-    <t>10002|10103|10203|10303</t>
+    <t>10003|10103|10203|10303</t>
   </si>
   <si>
     <t>%暴击概率(基础)</t>
   </si>
   <si>
-    <t>10003|10104|10204|10304</t>
+    <t>10004|10104|10204|10304</t>
   </si>
   <si>
     <t>%暴击伤害(基础)</t>
   </si>
   <si>
-    <t>10004|10105|10205|10305</t>
+    <t>10005|10105|10205|10305</t>
   </si>
   <si>
     <t>%元素穿透(基础)</t>
   </si>
   <si>
-    <t>10005|10106|10206|10306</t>
+    <t>10006|10106|10206|10306</t>
   </si>
   <si>
     <t>攻击速度(基础)</t>
   </si>
   <si>
-    <t>10007|10108|10208|10308</t>
+    <t>10008|10108|10208|10308</t>
   </si>
   <si>
     <t>%移动速度(基础百分比)</t>
   </si>
   <si>
-    <t>10016|10117|10217|10317</t>
+    <t>10017|10117|10217|10317</t>
   </si>
   <si>
     <t>技能急速(基础)</t>
   </si>
   <si>
-    <t>10014|10115|10215|10315</t>
+    <t>10015|10115|10215|10315</t>
   </si>
   <si>
     <t>生命值(基础)</t>
   </si>
   <si>
-    <t>10006|10107|10207|10307</t>
+    <t>10007|10107|10207|10307</t>
   </si>
   <si>
     <t>防御力(基础)</t>
   </si>
   <si>
-    <t>10008|10109|10209|10309</t>
+    <t>10009|10109|10209|10309</t>
   </si>
   <si>
     <t>%元素抗性</t>
   </si>
   <si>
-    <t>10009|10110|10210|10310</t>
+    <t>10010|10110|10210|10310</t>
   </si>
   <si>
     <t>%暴击抵抗</t>
   </si>
   <si>
-    <t>10010|10111|10211|10311</t>
+    <t>10011|10111|10211|10311</t>
   </si>
   <si>
     <t>%爆伤抵抗</t>
   </si>
   <si>
-    <t>10011|10112|10212|10312</t>
+    <t>10012|10112|10212|10312</t>
   </si>
   <si>
     <t>生命恢复(基础单位秒)</t>
   </si>
   <si>
-    <t>10012|10113|10213|10313</t>
+    <t>10013|10113|10213|10313</t>
   </si>
   <si>
     <t>固定伤害减免</t>
   </si>
   <si>
-    <t>10013|10114|10214|10314</t>
+    <t>10014|10114|10214|10314</t>
   </si>
   <si>
     <t>%闪避(基础)</t>
   </si>
   <si>
-    <t>10017|10118|10218|10318</t>
+    <t>10018|10118|10218|10318</t>
   </si>
   <si>
     <t>AttackDamage</t>
@@ -2232,12 +2232,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{02DF2F98-515C-4C6C-B5BC-4AE3A44171D7}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DA39DCEF-02FA-446E-A9EE-10266E40B11D}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{4D20CD83-24E3-4D23-8887-A7F781889383}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{9667C1AC-94AF-4C36-8A18-66BB2CBBF0E5}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2249,7 +2249,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="5"/>
       <tableStyleElement type="lastTotalCell" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{65B4FC0F-4DD6-4AC8-8457-70CDF9ADF166}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{5E2F6A76-9353-472C-A317-CB9CAEC1712E}">
       <tableStyleElement type="wholeTable" dxfId="20"/>
       <tableStyleElement type="headerRow" dxfId="19"/>
       <tableStyleElement type="totalRow" dxfId="18"/>
@@ -3492,8 +3492,8 @@
   <sheetPr/>
   <dimension ref="A1:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
